--- a/medicine/Psychotrope/Vitis_rupestris/Vitis_rupestris.xlsx
+++ b/medicine/Psychotrope/Vitis_rupestris/Vitis_rupestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitis rupestris est une espèce d'arbrisseaux sarmenteux de la famille des Vitaceae. Elle est cultivée pour ses fruits en grappes. Elle atteint des hauteurs de 0,6  à 2m. Les vignes américaines se localisent principalement dans les états Tennessee, Kentucky, Illinois, Missouri, Kansas, Nouveau-Mexique, Oklahoma, Arkansas, Texas, Louisiane et Mississippi.  
 </t>
@@ -511,7 +523,9 @@
           <t>Cultivars et hybridation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De nombreux croisements ont été réalisés avec des espèces américaines (Vitis riparia, Vitis berlandieri...) pour obtenir des porte-greffes ou des hybrides. Certains hybrides font encore l'objet d'une culture importante:
 Léon Millot
@@ -543,7 +557,9 @@
           <t>Noms viticoles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitis rupestris est connu sous les noms de « Beach Grape, Bush Grape, Currant Grape, Felsrebe, Ingar Grape,  July Grape, Mountain Grape,  Rock Grape,  Sand Grape, Sandrebe » et « Sugar Grape ».
 </t>
